--- a/FRANE, REEJAY.xlsx
+++ b/FRANE, REEJAY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="222">
   <si>
     <t>ACLC COLLEGE OF MARBEL</t>
   </si>
@@ -659,7 +659,7 @@
     <t>Course______________________</t>
   </si>
   <si>
-    <t>BSBA 2</t>
+    <t>BSCS 3 IRREG</t>
   </si>
   <si>
     <t>NEW Code#</t>
@@ -671,34 +671,19 @@
     <t>LAB</t>
   </si>
   <si>
-    <t>PHILIPPINE POPULA CULTURE</t>
-  </si>
-  <si>
-    <t>BAHRM</t>
-  </si>
-  <si>
-    <t>ADMISNISTRATIVE OFFICE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>BAMM</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>DATABASE MANAGEMENT SYSTEM (ORACLE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABOR LAW AND LEGISLATION </t>
-  </si>
-  <si>
-    <t>BANKING AND FINANCIAL INSTITUTIONS</t>
-  </si>
-  <si>
-    <t>WIKA, LIPUNAN AT KULTURA</t>
-  </si>
-  <si>
-    <t>TEAM SPORTS</t>
+    <t>Software Engineering 2</t>
+  </si>
+  <si>
+    <t>Principles of Operating Systems and its Application</t>
+  </si>
+  <si>
+    <t>Technopreneurship</t>
+  </si>
+  <si>
+    <t>CS Major Elective 3-XML-Based Web Applications</t>
+  </si>
+  <si>
+    <t>CS Design Project 1</t>
   </si>
   <si>
     <t>Evaluate by:</t>
@@ -5926,7 +5911,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5999,38 +5984,40 @@
     </row>
     <row r="6" ht="15.75" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11">
-        <v>6302</v>
+        <v>6100</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
-        <v>5391</v>
-      </c>
-      <c r="I6" s="13"/>
+        <v>6088</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6089</v>
+      </c>
     </row>
     <row r="7" ht="15.75" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="B7" s="11">
-        <v>6204</v>
+        <v>6201</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="D7" s="12">
         <v>3</v>
@@ -6043,44 +6030,46 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
-        <v>5366</v>
+        <v>1666</v>
       </c>
       <c r="I7" s="13"/>
     </row>
     <row r="8" ht="15.75" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11">
-        <v>6206</v>
+        <v>6300</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D8" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13">
-        <v>5367</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
+        <v>1671</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11">
-        <v>6201</v>
+        <v>6206</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D9" s="12">
         <v>2</v>
@@ -6093,21 +6082,21 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
-        <v>5368</v>
+        <v>1715</v>
       </c>
       <c r="I9" s="13">
-        <v>5380</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="B10" s="11">
-        <v>6250</v>
+        <v>6301</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D10" s="12">
         <v>3</v>
@@ -6120,19 +6109,19 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
-        <v>5369</v>
+        <v>1717</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" ht="15.75" spans="1:9">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
-        <v>6203</v>
+        <v>6101</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="D11" s="12">
         <v>3</v>
@@ -6145,69 +6134,85 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <v>5370</v>
+        <v>1678</v>
       </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12" ht="15.75" spans="1:9">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11">
-        <v>6101</v>
+        <v>6316</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="11">
         <v>3</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
-        <v>5371</v>
-      </c>
-      <c r="I12" s="13"/>
+        <v>1680</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1681</v>
+      </c>
     </row>
     <row r="13" ht="15.75" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="11">
-        <v>6200</v>
+        <v>6398</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D13" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
-        <v>5373</v>
+        <v>1682</v>
       </c>
       <c r="I13" s="13"/>
     </row>
     <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11">
+        <v>6301</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>1684</v>
+      </c>
       <c r="I14" s="13"/>
     </row>
     <row r="15" ht="15.75" spans="1:9">
@@ -6240,17 +6245,17 @@
       <c r="E17" s="7"/>
       <c r="F17" s="19">
         <f>SUM(F6:F16)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
